--- a/MasterData/10. AmortTemplateE!.xlsx
+++ b/MasterData/10. AmortTemplateE!.xlsx
@@ -216,12 +216,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,10 +242,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +531,7 @@
   <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E139" sqref="E139:E143"/>
+      <selection activeCell="F144" sqref="F144:F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,7 +3404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>150</v>
       </c>
@@ -3417,7 +3424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>150</v>
       </c>
@@ -3437,7 +3444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>150</v>
       </c>
@@ -3457,7 +3464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>150</v>
       </c>
@@ -3477,7 +3484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>150</v>
       </c>
@@ -4382,11 +4389,6 @@
     <filterColumn colId="0">
       <filters>
         <filter val="150"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Bio/Clip (E)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4404,7 +4406,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A37"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6062,13 +6064,13 @@
       <c r="A37" s="1">
         <v>150</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="1" t="s">

--- a/MasterData/10. AmortTemplateE!.xlsx
+++ b/MasterData/10. AmortTemplateE!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7215" tabRatio="643" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7215" tabRatio="643"/>
   </bookViews>
   <sheets>
     <sheet name="AmortTemplateSectionGrid" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="55">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -216,18 +216,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,11 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F144" sqref="F144:F147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>136</v>
       </c>
@@ -584,7 +577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>136</v>
       </c>
@@ -604,7 +597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>136</v>
       </c>
@@ -624,7 +617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>136</v>
       </c>
@@ -644,7 +637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>136</v>
       </c>
@@ -664,7 +657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>136</v>
       </c>
@@ -684,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>136</v>
       </c>
@@ -704,7 +697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>136</v>
       </c>
@@ -724,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>136</v>
       </c>
@@ -744,7 +737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>136</v>
       </c>
@@ -764,7 +757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>136</v>
       </c>
@@ -784,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>136</v>
       </c>
@@ -804,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>136</v>
       </c>
@@ -824,7 +817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>136</v>
       </c>
@@ -844,7 +837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>136</v>
       </c>
@@ -864,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>136</v>
       </c>
@@ -884,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>136</v>
       </c>
@@ -904,7 +897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>136</v>
       </c>
@@ -924,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>136</v>
       </c>
@@ -944,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>136</v>
       </c>
@@ -964,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>136</v>
       </c>
@@ -984,7 +977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>136</v>
       </c>
@@ -1004,7 +997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>136</v>
       </c>
@@ -1024,7 +1017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>136</v>
       </c>
@@ -1044,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>136</v>
       </c>
@@ -1064,7 +1057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>136</v>
       </c>
@@ -1084,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>136</v>
       </c>
@@ -1104,7 +1097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>136</v>
       </c>
@@ -1124,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>137</v>
       </c>
@@ -1144,7 +1137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>137</v>
       </c>
@@ -1164,7 +1157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>137</v>
       </c>
@@ -1184,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>137</v>
       </c>
@@ -1204,7 +1197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>137</v>
       </c>
@@ -1224,7 +1217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>137</v>
       </c>
@@ -1244,7 +1237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>137</v>
       </c>
@@ -1264,7 +1257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>137</v>
       </c>
@@ -1284,7 +1277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>137</v>
       </c>
@@ -1304,7 +1297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>137</v>
       </c>
@@ -1324,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>137</v>
       </c>
@@ -1344,7 +1337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>137</v>
       </c>
@@ -1364,7 +1357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>137</v>
       </c>
@@ -1384,7 +1377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>137</v>
       </c>
@@ -1404,7 +1397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>137</v>
       </c>
@@ -1424,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>137</v>
       </c>
@@ -1444,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>137</v>
       </c>
@@ -1464,7 +1457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>137</v>
       </c>
@@ -1484,7 +1477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>137</v>
       </c>
@@ -1504,7 +1497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>137</v>
       </c>
@@ -1524,7 +1517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>137</v>
       </c>
@@ -1544,7 +1537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>137</v>
       </c>
@@ -1564,7 +1557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>137</v>
       </c>
@@ -1584,7 +1577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>137</v>
       </c>
@@ -1604,7 +1597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>137</v>
       </c>
@@ -1624,7 +1617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>137</v>
       </c>
@@ -1644,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>137</v>
       </c>
@@ -1664,7 +1657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>137</v>
       </c>
@@ -1684,7 +1677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>137</v>
       </c>
@@ -1704,7 +1697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>137</v>
       </c>
@@ -1724,7 +1717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>137</v>
       </c>
@@ -1744,7 +1737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>137</v>
       </c>
@@ -1764,7 +1757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>137</v>
       </c>
@@ -1784,7 +1777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>137</v>
       </c>
@@ -1804,7 +1797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -1824,7 +1817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137</v>
       </c>
@@ -1844,7 +1837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>137</v>
       </c>
@@ -1864,7 +1857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>137</v>
       </c>
@@ -1884,7 +1877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>137</v>
       </c>
@@ -1904,7 +1897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>137</v>
       </c>
@@ -1924,7 +1917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>137</v>
       </c>
@@ -1944,7 +1937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>137</v>
       </c>
@@ -1964,7 +1957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>137</v>
       </c>
@@ -1984,7 +1977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>137</v>
       </c>
@@ -2004,7 +1997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>138</v>
       </c>
@@ -2024,7 +2017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>138</v>
       </c>
@@ -2044,7 +2037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>138</v>
       </c>
@@ -2064,7 +2057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>138</v>
       </c>
@@ -2084,7 +2077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>138</v>
       </c>
@@ -2104,7 +2097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>138</v>
       </c>
@@ -2124,7 +2117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>138</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>138</v>
       </c>
@@ -2164,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>138</v>
       </c>
@@ -2184,7 +2177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>138</v>
       </c>
@@ -2204,7 +2197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>138</v>
       </c>
@@ -2224,7 +2217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>138</v>
       </c>
@@ -2244,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>138</v>
       </c>
@@ -2264,7 +2257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>138</v>
       </c>
@@ -2284,7 +2277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>138</v>
       </c>
@@ -2304,7 +2297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>138</v>
       </c>
@@ -2324,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>138</v>
       </c>
@@ -2344,7 +2337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>138</v>
       </c>
@@ -2364,7 +2357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>138</v>
       </c>
@@ -2384,7 +2377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>138</v>
       </c>
@@ -2404,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>138</v>
       </c>
@@ -2424,7 +2417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>138</v>
       </c>
@@ -2444,7 +2437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>138</v>
       </c>
@@ -2464,7 +2457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>138</v>
       </c>
@@ -2484,7 +2477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>138</v>
       </c>
@@ -2504,7 +2497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>138</v>
       </c>
@@ -2524,7 +2517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>138</v>
       </c>
@@ -2544,7 +2537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>138</v>
       </c>
@@ -2564,7 +2557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>146</v>
       </c>
@@ -2584,7 +2577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>146</v>
       </c>
@@ -2604,7 +2597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>146</v>
       </c>
@@ -2624,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>146</v>
       </c>
@@ -2644,7 +2637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>146</v>
       </c>
@@ -2664,7 +2657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>146</v>
       </c>
@@ -2684,7 +2677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>146</v>
       </c>
@@ -2704,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>146</v>
       </c>
@@ -2724,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>147</v>
       </c>
@@ -2744,7 +2737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>147</v>
       </c>
@@ -2764,7 +2757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>147</v>
       </c>
@@ -2784,7 +2777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>147</v>
       </c>
@@ -2804,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>148</v>
       </c>
@@ -2824,7 +2817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>148</v>
       </c>
@@ -2844,7 +2837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>148</v>
       </c>
@@ -2864,7 +2857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>148</v>
       </c>
@@ -2884,7 +2877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>148</v>
       </c>
@@ -2904,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>148</v>
       </c>
@@ -2924,7 +2917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>148</v>
       </c>
@@ -2944,7 +2937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>148</v>
       </c>
@@ -2964,7 +2957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>148</v>
       </c>
@@ -2984,7 +2977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>148</v>
       </c>
@@ -3004,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>148</v>
       </c>
@@ -3024,7 +3017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>148</v>
       </c>
@@ -3044,7 +3037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>148</v>
       </c>
@@ -3064,7 +3057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>148</v>
       </c>
@@ -3084,7 +3077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>148</v>
       </c>
@@ -3104,7 +3097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>149</v>
       </c>
@@ -3124,7 +3117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>149</v>
       </c>
@@ -3144,7 +3137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>149</v>
       </c>
@@ -3164,7 +3157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>149</v>
       </c>
@@ -3184,7 +3177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>149</v>
       </c>
@@ -3204,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>149</v>
       </c>
@@ -3224,7 +3217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>149</v>
       </c>
@@ -3244,7 +3237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>149</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>149</v>
       </c>
@@ -3284,7 +3277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>149</v>
       </c>
@@ -3504,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>169</v>
       </c>
@@ -3524,7 +3517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>169</v>
       </c>
@@ -3544,7 +3537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>169</v>
       </c>
@@ -3564,7 +3557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>169</v>
       </c>
@@ -3584,7 +3577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>169</v>
       </c>
@@ -3604,7 +3597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>169</v>
       </c>
@@ -3624,7 +3617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>169</v>
       </c>
@@ -3644,7 +3637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>169</v>
       </c>
@@ -3664,7 +3657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>169</v>
       </c>
@@ -3684,7 +3677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>169</v>
       </c>
@@ -3704,7 +3697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>169</v>
       </c>
@@ -3724,7 +3717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>169</v>
       </c>
@@ -3744,7 +3737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>169</v>
       </c>
@@ -3764,7 +3757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>169</v>
       </c>
@@ -3784,7 +3777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>169</v>
       </c>
@@ -3804,7 +3797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>169</v>
       </c>
@@ -3824,7 +3817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>169</v>
       </c>
@@ -3844,7 +3837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>169</v>
       </c>
@@ -3864,7 +3857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>169</v>
       </c>
@@ -3884,7 +3877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>169</v>
       </c>
@@ -3904,7 +3897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>169</v>
       </c>
@@ -3924,7 +3917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -3964,7 +3957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>169</v>
       </c>
@@ -3984,7 +3977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>169</v>
       </c>
@@ -4004,7 +3997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>169</v>
       </c>
@@ -4024,7 +4017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>169</v>
       </c>
@@ -4044,7 +4037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>169</v>
       </c>
@@ -4064,7 +4057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>169</v>
       </c>
@@ -4084,7 +4077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>169</v>
       </c>
@@ -4104,7 +4097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>169</v>
       </c>
@@ -4124,7 +4117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>169</v>
       </c>
@@ -4144,7 +4137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>169</v>
       </c>
@@ -4164,7 +4157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>169</v>
       </c>
@@ -4184,7 +4177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>169</v>
       </c>
@@ -4204,7 +4197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>169</v>
       </c>
@@ -4224,7 +4217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>169</v>
       </c>
@@ -4244,7 +4237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>169</v>
       </c>
@@ -4264,7 +4257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>169</v>
       </c>
@@ -4284,7 +4277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>169</v>
       </c>
@@ -4304,7 +4297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>169</v>
       </c>
@@ -4324,7 +4317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>169</v>
       </c>
@@ -4344,7 +4337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>169</v>
       </c>
@@ -4364,7 +4357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>169</v>
       </c>
@@ -4385,13 +4378,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F192">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="150"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -4405,8 +4391,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5287,7 +5273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>138</v>
       </c>
@@ -5328,12 +5314,11 @@
         <f t="shared" si="0"/>
         <v>138Acquired Movies (Multiple Windows)Acquired MiniSeriesAcquired Movies</v>
       </c>
-      <c r="N20" s="1" t="e">
-        <f>VLOOKUP(M20,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>138</v>
       </c>
@@ -5374,12 +5359,11 @@
         <f t="shared" si="0"/>
         <v>138Acquired Movies (Multiple Windows)DocumentaryAcquired Movies</v>
       </c>
-      <c r="N21" s="1" t="e">
-        <f>VLOOKUP(M21,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>138</v>
       </c>
@@ -5420,12 +5404,11 @@
         <f t="shared" si="0"/>
         <v>138Acquired Movies (Multiple Windows)MoviesAcquired Movies</v>
       </c>
-      <c r="N22" s="1" t="e">
-        <f>VLOOKUP(M22,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>138</v>
       </c>
@@ -5466,12 +5449,11 @@
         <f t="shared" si="0"/>
         <v>138Acquired Movies (Multiple Windows)OriginalAcquired Movies</v>
       </c>
-      <c r="N23" s="1" t="e">
-        <f>VLOOKUP(M23,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>138</v>
       </c>
@@ -5512,12 +5494,11 @@
         <f t="shared" si="0"/>
         <v>138Acquired Movies (Multiple Windows)Original MiniSeriesAcquired Movies</v>
       </c>
-      <c r="N24" s="1" t="e">
-        <f>VLOOKUP(M24,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>138</v>
       </c>
@@ -5558,12 +5539,11 @@
         <f t="shared" si="0"/>
         <v>138Acquired Movies (Multiple Windows)SeriesAcquired Movies</v>
       </c>
-      <c r="N25" s="1" t="e">
-        <f>VLOOKUP(M25,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>138</v>
       </c>
@@ -5604,9 +5584,8 @@
         <f t="shared" si="0"/>
         <v>138Acquired Movies (Multiple Windows)SpecialAcquired Movies</v>
       </c>
-      <c r="N26" s="1" t="e">
-        <f>VLOOKUP(M26,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N26" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -6061,7 +6040,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -7038,7 +7017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7612,126 +7593,231 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>138</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>138Acquired Movies (Multiple Windows)Acquired MiniSeriesAcquired Movies</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>138</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>138Acquired Movies (Multiple Windows)DocumentaryAcquired Movies</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>138</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>138Acquired Movies (Multiple Windows)MoviesAcquired Movies</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>138</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>138Acquired Movies (Multiple Windows)OriginalAcquired Movies</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>138</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>138Acquired Movies (Multiple Windows)Original MiniSeriesAcquired Movies</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>138Acquired Movies (Multiple Windows)SeriesAcquired Movies</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>138</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>138Acquired Movies (Multiple Windows)SpecialAcquired Movies</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="str">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="str">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="str">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="str">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="1" t="str">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="1" t="str">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="1" t="str">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="str">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="1" t="str">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="str">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="1" t="str">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="1" t="str">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/MasterData/10. AmortTemplateE!.xlsx
+++ b/MasterData/10. AmortTemplateE!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7215" tabRatio="643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7215" tabRatio="643" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AmortTemplateSectionGrid" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="55">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
@@ -4388,12 +4388,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4460,7 +4457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>136</v>
       </c>
@@ -4505,7 +4502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>136</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>136</v>
       </c>
@@ -4595,7 +4592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>136</v>
       </c>
@@ -4640,7 +4637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>136</v>
       </c>
@@ -4685,7 +4682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>136</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>136</v>
       </c>
@@ -4775,7 +4772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>137</v>
       </c>
@@ -4820,7 +4817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>137</v>
       </c>
@@ -4865,7 +4862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>137</v>
       </c>
@@ -4910,7 +4907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>137</v>
       </c>
@@ -4955,7 +4952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>137</v>
       </c>
@@ -5003,7 +5000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>137</v>
       </c>
@@ -5048,7 +5045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>137</v>
       </c>
@@ -5093,7 +5090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>137</v>
       </c>
@@ -5138,7 +5135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>137</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>137</v>
       </c>
@@ -5228,7 +5225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>137</v>
       </c>
@@ -5273,7 +5270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>138</v>
       </c>
@@ -5318,7 +5315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>138</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>138</v>
       </c>
@@ -5408,7 +5405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>138</v>
       </c>
@@ -5453,7 +5450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>138</v>
       </c>
@@ -5498,7 +5495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>138</v>
       </c>
@@ -5543,7 +5540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>138</v>
       </c>
@@ -5588,7 +5585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>146</v>
       </c>
@@ -5633,7 +5630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>146</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>147</v>
       </c>
@@ -5723,7 +5720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>147</v>
       </c>
@@ -5768,7 +5765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>148</v>
       </c>
@@ -5813,7 +5810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>148</v>
       </c>
@@ -5858,7 +5855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>148</v>
       </c>
@@ -5903,7 +5900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>149</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>149</v>
       </c>
@@ -6034,9 +6031,8 @@
         <f t="shared" si="0"/>
         <v>150THSBio/Clip (E)Bio/Clip (E)</v>
       </c>
-      <c r="N36" s="1" t="e">
-        <f>VLOOKUP(M36,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N36" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -6080,12 +6076,11 @@
         <f t="shared" si="0"/>
         <v>150THSOriginal SeriesBio/Clip (E)</v>
       </c>
-      <c r="N37" s="1" t="e">
-        <f>VLOOKUP(M37,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>169</v>
       </c>
@@ -6133,7 +6128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>169</v>
       </c>
@@ -6181,7 +6176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>169</v>
       </c>
@@ -6229,7 +6224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>169</v>
       </c>
@@ -6277,7 +6272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>169</v>
       </c>
@@ -6325,7 +6320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>169</v>
       </c>
@@ -6373,7 +6368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>169</v>
       </c>
@@ -6421,7 +6416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>169</v>
       </c>
@@ -6469,7 +6464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>169</v>
       </c>
@@ -6517,7 +6512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>169</v>
       </c>
@@ -6565,7 +6560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>169</v>
       </c>
@@ -6613,7 +6608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>172</v>
       </c>
@@ -6661,7 +6656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>172</v>
       </c>
@@ -6709,7 +6704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>172</v>
       </c>
@@ -6757,7 +6752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -6805,7 +6800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>368</v>
       </c>
@@ -6853,7 +6848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>368</v>
       </c>
@@ -6901,7 +6896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>368</v>
       </c>
@@ -6949,7 +6944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>368</v>
       </c>
@@ -6998,13 +6993,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O56">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -7018,7 +7006,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E34"/>
+      <selection activeCell="A35" sqref="A35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7740,15 +7728,45 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>150THSBio/Clip (E)Bio/Clip (E)</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>150THSOriginal SeriesBio/Clip (E)</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">

--- a/MasterData/10. AmortTemplateE!.xlsx
+++ b/MasterData/10. AmortTemplateE!.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Unique</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>TitleType Episode not found in drop down</t>
+  </si>
+  <si>
+    <t>UniqueKey</t>
   </si>
 </sst>
 </file>
@@ -562,13 +562,13 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,13 +602,13 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -622,13 +622,13 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -642,13 +642,13 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -662,13 +662,13 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -682,13 +682,13 @@
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -702,13 +702,13 @@
         <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -722,13 +722,13 @@
         <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -742,13 +742,13 @@
         <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -762,13 +762,13 @@
         <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -782,13 +782,13 @@
         <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -802,13 +802,13 @@
         <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -842,13 +842,13 @@
         <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -862,13 +862,13 @@
         <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -882,13 +882,13 @@
         <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -902,13 +902,13 @@
         <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -922,13 +922,13 @@
         <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -942,13 +942,13 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -962,13 +962,13 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -982,13 +982,13 @@
         <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1002,13 +1002,13 @@
         <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1022,13 +1022,13 @@
         <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1042,13 +1042,13 @@
         <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1062,13 +1062,13 @@
         <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1082,13 +1082,13 @@
         <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1102,13 +1102,13 @@
         <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1125,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -1165,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -1185,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -1205,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1225,7 +1225,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -1245,7 +1245,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -1265,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -1305,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -1345,7 +1345,7 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -1365,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -1385,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -1425,7 +1425,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -1525,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -1545,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -1565,7 +1565,7 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -1585,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -1605,7 +1605,7 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -1625,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -1645,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -1665,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -2002,13 +2002,13 @@
         <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2022,13 +2022,13 @@
         <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2042,13 +2042,13 @@
         <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -2062,13 +2062,13 @@
         <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -2082,13 +2082,13 @@
         <v>138</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2102,13 +2102,13 @@
         <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2122,13 +2122,13 @@
         <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -2142,13 +2142,13 @@
         <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2162,13 +2162,13 @@
         <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2182,13 +2182,13 @@
         <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2202,13 +2202,13 @@
         <v>138</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -2222,13 +2222,13 @@
         <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2242,13 +2242,13 @@
         <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2262,13 +2262,13 @@
         <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2282,13 +2282,13 @@
         <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -2302,13 +2302,13 @@
         <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -2322,13 +2322,13 @@
         <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2342,13 +2342,13 @@
         <v>138</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -2362,13 +2362,13 @@
         <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -2382,13 +2382,13 @@
         <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -2402,13 +2402,13 @@
         <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2422,13 +2422,13 @@
         <v>138</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -2442,13 +2442,13 @@
         <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -2462,13 +2462,13 @@
         <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -2482,13 +2482,13 @@
         <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2502,13 +2502,13 @@
         <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2522,13 +2522,13 @@
         <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2542,13 +2542,13 @@
         <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2562,13 +2562,13 @@
         <v>146</v>
       </c>
       <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
         <v>38</v>
       </c>
-      <c r="C102" t="s">
-        <v>39</v>
-      </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2582,13 +2582,13 @@
         <v>146</v>
       </c>
       <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
         <v>38</v>
       </c>
-      <c r="C103" t="s">
-        <v>39</v>
-      </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -2602,13 +2602,13 @@
         <v>146</v>
       </c>
       <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" t="s">
         <v>38</v>
       </c>
-      <c r="C104" t="s">
-        <v>39</v>
-      </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -2622,13 +2622,13 @@
         <v>146</v>
       </c>
       <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
         <v>38</v>
       </c>
-      <c r="C105" t="s">
-        <v>39</v>
-      </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -2642,13 +2642,13 @@
         <v>146</v>
       </c>
       <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
         <v>38</v>
-      </c>
-      <c r="C106" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" t="s">
-        <v>39</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2662,13 +2662,13 @@
         <v>146</v>
       </c>
       <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
         <v>38</v>
-      </c>
-      <c r="C107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" t="s">
-        <v>39</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -2682,13 +2682,13 @@
         <v>146</v>
       </c>
       <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
         <v>38</v>
-      </c>
-      <c r="C108" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" t="s">
-        <v>39</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -2702,13 +2702,13 @@
         <v>146</v>
       </c>
       <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
         <v>38</v>
-      </c>
-      <c r="C109" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" t="s">
-        <v>39</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -2722,13 +2722,13 @@
         <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -2742,13 +2742,13 @@
         <v>147</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -2762,13 +2762,13 @@
         <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -2782,13 +2782,13 @@
         <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -2802,13 +2802,13 @@
         <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -2822,13 +2822,13 @@
         <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -2842,13 +2842,13 @@
         <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -2862,13 +2862,13 @@
         <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -2882,13 +2882,13 @@
         <v>148</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -2902,13 +2902,13 @@
         <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -2922,13 +2922,13 @@
         <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -2942,13 +2942,13 @@
         <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -2962,13 +2962,13 @@
         <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -2982,13 +2982,13 @@
         <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -3002,13 +3002,13 @@
         <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3022,13 +3022,13 @@
         <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -3042,13 +3042,13 @@
         <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -3062,13 +3062,13 @@
         <v>148</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
         <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -3082,13 +3082,13 @@
         <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -3102,13 +3102,13 @@
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -3122,13 +3122,13 @@
         <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -3142,13 +3142,13 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -3162,13 +3162,13 @@
         <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E132">
         <v>4</v>
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -3202,13 +3202,13 @@
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
         <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3222,13 +3222,13 @@
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
         <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -3242,13 +3242,13 @@
         <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
         <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -3262,13 +3262,13 @@
         <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
         <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -3282,13 +3282,13 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
         <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -3302,13 +3302,13 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -3342,13 +3342,13 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E141">
         <v>3</v>
@@ -3362,13 +3362,13 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -3382,13 +3382,13 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -3402,13 +3402,13 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -3422,13 +3422,13 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
         <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -3442,13 +3442,13 @@
         <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
         <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E146">
         <v>3</v>
@@ -3462,13 +3462,13 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
         <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -3482,13 +3482,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
         <v>20</v>
       </c>
       <c r="D148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E148">
         <v>5</v>
@@ -3502,10 +3502,10 @@
         <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
         <v>19</v>
@@ -3522,10 +3522,10 @@
         <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D150" t="s">
         <v>19</v>
@@ -3542,10 +3542,10 @@
         <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151" t="s">
         <v>19</v>
@@ -3562,10 +3562,10 @@
         <v>169</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" t="s">
         <v>19</v>
@@ -3582,10 +3582,10 @@
         <v>169</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" t="s">
         <v>19</v>
@@ -3602,10 +3602,10 @@
         <v>169</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" t="s">
         <v>19</v>
@@ -3622,10 +3622,10 @@
         <v>169</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" t="s">
         <v>19</v>
@@ -3642,10 +3642,10 @@
         <v>169</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
@@ -3662,10 +3662,10 @@
         <v>169</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D157" t="s">
         <v>19</v>
@@ -3682,10 +3682,10 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" t="s">
         <v>19</v>
@@ -3702,10 +3702,10 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
         <v>19</v>
@@ -3722,10 +3722,10 @@
         <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -3742,10 +3742,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" t="s">
         <v>19</v>
@@ -3762,10 +3762,10 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" t="s">
         <v>19</v>
@@ -3782,10 +3782,10 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
         <v>19</v>
@@ -3802,10 +3802,10 @@
         <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" t="s">
         <v>19</v>
@@ -3822,7 +3822,7 @@
         <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -3842,7 +3842,7 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C166" t="s">
         <v>18</v>
@@ -3862,7 +3862,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
@@ -3882,7 +3882,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
@@ -3902,10 +3902,10 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" t="s">
         <v>19</v>
@@ -3922,10 +3922,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" t="s">
         <v>19</v>
@@ -3942,10 +3942,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" t="s">
         <v>19</v>
@@ -3962,10 +3962,10 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -3982,10 +3982,10 @@
         <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D173" t="s">
         <v>19</v>
@@ -4002,10 +4002,10 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -4022,10 +4022,10 @@
         <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D175" t="s">
         <v>19</v>
@@ -4042,10 +4042,10 @@
         <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
@@ -4062,7 +4062,7 @@
         <v>169</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C177" t="s">
         <v>20</v>
@@ -4082,7 +4082,7 @@
         <v>169</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C178" t="s">
         <v>20</v>
@@ -4102,7 +4102,7 @@
         <v>169</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s">
         <v>20</v>
@@ -4122,7 +4122,7 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C180" t="s">
         <v>20</v>
@@ -4142,7 +4142,7 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
@@ -4162,7 +4162,7 @@
         <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -4182,7 +4182,7 @@
         <v>169</v>
       </c>
       <c r="B183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C183" t="s">
         <v>15</v>
@@ -4202,7 +4202,7 @@
         <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
@@ -4222,7 +4222,7 @@
         <v>169</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -4242,7 +4242,7 @@
         <v>169</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -4262,7 +4262,7 @@
         <v>169</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -4282,7 +4282,7 @@
         <v>169</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C188" t="s">
         <v>16</v>
@@ -4302,7 +4302,7 @@
         <v>169</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C189" t="s">
         <v>17</v>
@@ -4322,7 +4322,7 @@
         <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
@@ -4342,7 +4342,7 @@
         <v>169</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C191" t="s">
         <v>17</v>
@@ -4362,7 +4362,7 @@
         <v>169</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
@@ -4390,7 +4390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4448,13 +4450,13 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4462,13 +4464,13 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -4477,16 +4479,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
@@ -4499,7 +4501,7 @@
         <v>136Acquired MoviesAcquired MiniSeriesAcquired Movies</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4507,13 +4509,13 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -4522,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
@@ -4544,7 +4546,7 @@
         <v>136Acquired MoviesDocumentaryAcquired Movies</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4552,13 +4554,13 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -4567,17 +4569,17 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>136Acquired MoviesMoviesAcquired Movies</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4597,13 +4599,13 @@
         <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -4612,17 +4614,17 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4634,7 +4636,7 @@
         <v>136Acquired MoviesOriginalAcquired Movies</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -4642,13 +4644,13 @@
         <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -4657,17 +4659,17 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>136Acquired MoviesOriginal MiniSeriesAcquired Movies</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4687,13 +4689,13 @@
         <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -4702,17 +4704,17 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4724,7 +4726,7 @@
         <v>136Acquired MoviesSeriesAcquired Movies</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -4732,13 +4734,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -4747,17 +4749,17 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>136Acquired MoviesSpecialAcquired Movies</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4780,7 +4782,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -4792,17 +4794,17 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>137Acquired SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4825,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -4837,17 +4839,17 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>137Acquired SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4870,7 +4872,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -4882,17 +4884,17 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>137Acquired SeriesConcertAcquired Series</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4915,7 +4917,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -4927,17 +4929,17 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>137Acquired SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4972,17 +4974,17 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4994,10 +4996,10 @@
         <v>137Acquired SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5008,7 +5010,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -5020,17 +5022,17 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>137Acquired SeriesEventsAcquired Series</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -5053,7 +5055,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -5065,17 +5067,17 @@
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K15" s="1" t="s">
         <v>9</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>137Acquired SeriesMoviesAcquired Series</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5110,17 +5112,17 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K16" s="1" t="s">
         <v>9</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>137Acquired SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5155,17 +5157,17 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K17" s="1" t="s">
         <v>9</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>137Acquired SeriesSeriesAcquired Series</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -5200,17 +5202,17 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K18" s="1" t="s">
         <v>9</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>137Acquired SeriesSpecialAcquired Series</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5245,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K19" s="1" t="s">
         <v>9</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>137Acquired SeriesSportsAcquired Series</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -5275,13 +5277,13 @@
         <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -5290,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -5312,7 +5314,7 @@
         <v>138Acquired Movies (Multiple Windows)Acquired MiniSeriesAcquired Movies</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -5320,13 +5322,13 @@
         <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -5335,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -5357,7 +5359,7 @@
         <v>138Acquired Movies (Multiple Windows)DocumentaryAcquired Movies</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -5365,13 +5367,13 @@
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -5380,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -5402,7 +5404,7 @@
         <v>138Acquired Movies (Multiple Windows)MoviesAcquired Movies</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -5410,13 +5412,13 @@
         <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -5425,7 +5427,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -5447,7 +5449,7 @@
         <v>138Acquired Movies (Multiple Windows)OriginalAcquired Movies</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -5455,13 +5457,13 @@
         <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
@@ -5470,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -5492,7 +5494,7 @@
         <v>138Acquired Movies (Multiple Windows)Original MiniSeriesAcquired Movies</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -5500,13 +5502,13 @@
         <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
@@ -5515,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -5537,7 +5539,7 @@
         <v>138Acquired Movies (Multiple Windows)SeriesAcquired Movies</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -5545,13 +5547,13 @@
         <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
@@ -5560,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -5582,7 +5584,7 @@
         <v>138Acquired Movies (Multiple Windows)SpecialAcquired Movies</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5590,22 +5592,22 @@
         <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1">
         <v>12</v>
@@ -5627,7 +5629,7 @@
         <v>146Reality-ReturningOriginal RealityOriginal Reality</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5635,22 +5637,22 @@
         <v>146</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1">
         <v>12</v>
@@ -5672,7 +5674,7 @@
         <v>146Reality-ReturningOriginal SeriesOriginal Reality</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5680,22 +5682,22 @@
         <v>147</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1">
         <v>6</v>
@@ -5717,7 +5719,7 @@
         <v>147Reality - S1Original RealityOriginal Reality</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5725,22 +5727,22 @@
         <v>147</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1">
         <v>6</v>
@@ -5762,7 +5764,7 @@
         <v>147Reality - S1Original SeriesOriginal Reality</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5770,22 +5772,22 @@
         <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="1">
         <v>15</v>
@@ -5807,7 +5809,7 @@
         <v>148E! SpecialsBio/Clip (E)E! Specials</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5815,22 +5817,22 @@
         <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1">
         <v>15</v>
@@ -5852,7 +5854,7 @@
         <v>148E! SpecialsOriginal RealityE! Specials</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -5860,22 +5862,22 @@
         <v>148</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="1">
         <v>15</v>
@@ -5897,7 +5899,7 @@
         <v>148E! SpecialsOriginal SeriesE! Specials</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -5905,22 +5907,22 @@
         <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="1">
         <v>15</v>
@@ -5942,7 +5944,7 @@
         <v>149Bio/ClipBio/Clip (E)Bio/Clip (E)</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -5950,22 +5952,22 @@
         <v>149</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="1">
         <v>15</v>
@@ -5987,7 +5989,7 @@
         <v>149Bio/ClipOriginal SeriesBio/Clip (E)</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -5995,22 +5997,22 @@
         <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="1">
         <v>15</v>
@@ -6032,7 +6034,7 @@
         <v>150THSBio/Clip (E)Bio/Clip (E)</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -6040,22 +6042,22 @@
         <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" s="1">
         <v>15</v>
@@ -6077,7 +6079,7 @@
         <v>150THSOriginal SeriesBio/Clip (E)</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -6085,10 +6087,10 @@
         <v>169</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>19</v>
@@ -6100,7 +6102,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -6122,10 +6124,10 @@
         <v>169Acquired Link SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -6133,10 +6135,10 @@
         <v>169</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>19</v>
@@ -6148,7 +6150,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -6170,10 +6172,10 @@
         <v>169Acquired Link SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -6181,10 +6183,10 @@
         <v>169</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>19</v>
@@ -6196,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -6218,10 +6220,10 @@
         <v>169Acquired Link SeriesConcertAcquired Series</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -6229,10 +6231,10 @@
         <v>169</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>19</v>
@@ -6244,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -6266,10 +6268,10 @@
         <v>169Acquired Link SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -6277,7 +6279,7 @@
         <v>169</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -6292,7 +6294,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -6314,10 +6316,10 @@
         <v>169Acquired Link SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -6325,10 +6327,10 @@
         <v>169</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>19</v>
@@ -6340,7 +6342,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -6362,10 +6364,10 @@
         <v>169Acquired Link SeriesEventsAcquired Series</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -6373,10 +6375,10 @@
         <v>169</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>19</v>
@@ -6388,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -6410,10 +6412,10 @@
         <v>169Acquired Link SeriesMoviesAcquired Series</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -6421,7 +6423,7 @@
         <v>169</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>20</v>
@@ -6436,7 +6438,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -6458,10 +6460,10 @@
         <v>169Acquired Link SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -6469,7 +6471,7 @@
         <v>169</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -6484,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -6506,10 +6508,10 @@
         <v>169Acquired Link SeriesSeriesAcquired Series</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -6517,7 +6519,7 @@
         <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>16</v>
@@ -6532,7 +6534,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -6554,10 +6556,10 @@
         <v>169Acquired Link SeriesSpecialAcquired Series</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -6565,7 +6567,7 @@
         <v>169</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>17</v>
@@ -6580,7 +6582,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -6602,10 +6604,10 @@
         <v>169Acquired Link SeriesSportsAcquired Series</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -6613,13 +6615,13 @@
         <v>172</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
@@ -6628,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="1">
         <v>12</v>
@@ -6650,10 +6652,10 @@
         <v>172BlankConcertBlank</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -6661,13 +6663,13 @@
         <v>172</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
@@ -6676,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H50" s="1">
         <v>12</v>
@@ -6698,10 +6700,10 @@
         <v>172BlankDocumentaryBlank</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -6709,13 +6711,13 @@
         <v>172</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
@@ -6724,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="1">
         <v>12</v>
@@ -6746,10 +6748,10 @@
         <v>172BlankEventsBlank</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -6757,13 +6759,13 @@
         <v>172</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -6772,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="1">
         <v>12</v>
@@ -6794,10 +6796,10 @@
         <v>172BlankTopicalsBlank</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -6805,47 +6807,47 @@
         <v>368</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>368Data MigrationBio/Clip (E)Blank</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>368Data MigrationBio/Clip (E)Blank</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -6853,47 +6855,47 @@
         <v>368</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>368Data MigrationOriginal RealityBlank</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>368Data MigrationOriginal RealityBlank</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -6901,47 +6903,47 @@
         <v>368</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>368Data MigrationOriginal SeriesBlank</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>368Data MigrationOriginal SeriesBlank</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -6949,13 +6951,13 @@
         <v>368</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
@@ -6964,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -6986,10 +6988,10 @@
         <v>368Data MigrationSpecialBlank</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7039,16 +7041,16 @@
         <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2)</f>
@@ -7060,16 +7062,16 @@
         <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F59" si="0">CONCATENATE(A3,B3,C3,D3)</f>
@@ -7081,16 +7083,16 @@
         <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7102,16 +7104,16 @@
         <v>146</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7123,16 +7125,16 @@
         <v>146</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7144,16 +7146,16 @@
         <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7168,13 +7170,13 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7195,7 +7197,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7210,13 +7212,13 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7237,7 +7239,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7258,7 +7260,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7270,16 +7272,16 @@
         <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7294,13 +7296,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7312,16 +7314,16 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7342,7 +7344,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7354,16 +7356,16 @@
         <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7375,16 +7377,16 @@
         <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7399,13 +7401,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7417,16 +7419,16 @@
         <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7438,16 +7440,16 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7459,16 +7461,16 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7480,16 +7482,16 @@
         <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7504,13 +7506,13 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7525,13 +7527,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7543,16 +7545,16 @@
         <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7564,16 +7566,16 @@
         <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7585,16 +7587,16 @@
         <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7606,16 +7608,16 @@
         <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7627,16 +7629,16 @@
         <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7648,16 +7650,16 @@
         <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7669,16 +7671,16 @@
         <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7690,16 +7692,16 @@
         <v>138</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7711,16 +7713,16 @@
         <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7732,16 +7734,16 @@
         <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7753,16 +7755,16 @@
         <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
